--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,61 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-08 21:46:24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1000FLOKIUSDT</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11658</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1164</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.116516</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.116633</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,61 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-08 21:52:56</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>VIRTUALUSDT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3376</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3399</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.3399</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.3399</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.33722</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.33856</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,61 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-08 21:52:58</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VIRTUALUSDT</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3376</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.3401</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.3401</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3401</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.33742</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.33876</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,61 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-09 00:02:31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SPXUSDT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.7479</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.7479</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.7479</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.744404</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.746152</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,6 +775,61 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-09 00:02:36</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SPXUSDT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.744504</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.746252</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,61 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-09 00:05:32</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPXUSDT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.7509</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.7537</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.7537</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.7537</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.750193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.751946</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,61 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-09 00:09:24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPXUSDT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LONG</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.7668</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.7668</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.7668</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.763266</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.765033</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,6 +940,61 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-08-09 12:27:06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TREEUSDT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.41106</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.41071</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.411121</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,6 +995,61 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-08-09 12:27:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TREEUSDT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.41096</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.41061</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.41102</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/skipped_signals.xlsx
+++ b/skipped_signals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,6 +1050,61 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-08-09 12:31:45</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MAGICUSDT</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SHORT</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2583</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Противоположные паттерны</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Пробой</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.258258</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.258516</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Разворотная свеча</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Пин-бар (медвежий), Пин-бар (бычий), Доджи</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
